--- a/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>7,692.11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8,183.06</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8,487.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8,735.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>9,073.85</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8,735.07</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8,487.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8,183.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7,692.11</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>9073.85</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>7692.11</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>8434.219999999999</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2,291.73</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2,309.40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2,217.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2,339.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2,613.80</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2,339.01</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2,217.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2,309.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2,291.73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>2613.8</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>2217.9</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2354.368</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>121.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>147.63</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>121.47</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>76.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>84.15</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>147.63</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>76.42</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>102.964</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>12.35</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>16.506</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1,844.35</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2,148.27</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,001.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,850.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>2,047.10</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,850.57</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2,001.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2,148.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1,844.35</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>2148.27</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1844.35</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1978.342</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>5,616.81</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5,955.91</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5,835.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6,048.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>6,336.64</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6,048.47</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5,835.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5,955.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5,616.81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>6336.64</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>5616.81</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>5958.75</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,035.69</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>972.97</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,061.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,125.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,166.94</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,125.93</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,061.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>972.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,035.69</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1166.94</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>972.97</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1072.554</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,898.52</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,922.10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,113.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,052.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,330.96</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,052.48</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,113.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,922.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,898.52</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2330.96</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1898.52</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2063.508</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>3,386.67</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3,887.97</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,779.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3,843.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>4,060.19</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3,843.77</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3,779.34</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3,887.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3,386.67</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>4060.19</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>3386.67</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>3791.588</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>385.93</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>388.84</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>286.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>482.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>455.89</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>482.78</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>286.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>388.84</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>385.93</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>482.78</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>286.13</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>399.914</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>3,000.74</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,499.13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,493.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,360.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,604.30</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,360.99</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,493.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,499.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3,000.74</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3604.3</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>3000.74</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3391.674</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,018.42</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,173.43</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1,166.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,127.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,222.84</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,127.95</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1,166.69</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,173.43</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,018.42</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1222.84</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1018.42</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1141.866</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,982.32</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,325.70</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,326.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,233.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,381.46</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,233.04</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,326.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,325.70</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,982.32</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2381.46</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1982.32</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2249.808</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,982.32</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,325.70</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,326.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,233.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,381.46</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,233.04</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,326.52</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,325.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,982.32</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2381.46</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1982.32</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2249.808</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>478.25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>478.92</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>479.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>481.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>482.86</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>481.54</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>479.81</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>478.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>478.25</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>482.86</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>480.276</v>
       </c>
     </row>
     <row r="21"/>
@@ -1151,37 +993,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>9.90</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>9.4</v>
       </c>
     </row>
     <row r="26">
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>9.80</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="27"/>
@@ -1241,37 +1065,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>9.90</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>9.4</v>
       </c>
     </row>
     <row r="30">
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>9.80</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="31"/>
@@ -1331,37 +1137,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>2,941.71</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3,017.84</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2,989.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3,356.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>3,361.65</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3,356.22</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2,989.28</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3,017.84</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2,941.71</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>3361.65</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>2941.71</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>3133.34</v>
       </c>
     </row>
     <row r="34">
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>767.21</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>797.34</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>820.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1,007.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>917.34</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1,007.42</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>820.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>797.34</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>767.21</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>1007.42</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>767.21</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>861.8680000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>1.034</v>
       </c>
     </row>
     <row r="36">
@@ -1459,32 +1238,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>0.32</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>0.30</t>
         </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.304</v>
       </c>
     </row>
     <row r="37">
@@ -1517,15 +1287,6 @@
         <is>
           <t>0.50</t>
         </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="38"/>
@@ -1544,37 +1305,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>144.10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>144.44</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>144.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>145.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>146.41</t>
         </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>145.75</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>144.88</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>144.44</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>144.10</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>146.41</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>145.116</v>
       </c>
     </row>
     <row r="41">
@@ -1585,37 +1337,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>60.60</t>
         </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>60.50</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>60.40</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>60.3</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>60.42</v>
       </c>
     </row>
     <row r="42"/>
@@ -1673,15 +1416,6 @@
           <t>54.32</t>
         </is>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>54.32</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>54.32</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>54.32000000000001</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1714,15 +1448,6 @@
           <t>100.00</t>
         </is>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1732,37 +1457,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>22.50</t>
         </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>22.60</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>22.60</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>22.70</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>22.70</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>22.62</v>
       </c>
     </row>
     <row r="51">
@@ -1773,37 +1489,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>201309</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>201312</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>201403</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>201406</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>201409</t>
         </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>201406</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>201403</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>201312</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>201309</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>201409</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>201309</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>201367.8</v>
       </c>
     </row>
   </sheetData>
